--- a/paramenter.xlsx
+++ b/paramenter.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>num</t>
   </si>
@@ -400,15 +400,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K122"/>
+  <dimension ref="A1:J122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,11 +439,8 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>194</v>
       </c>
@@ -471,14 +468,8 @@
       <c r="I2">
         <v>469.9838417964778</v>
       </c>
-      <c r="J2">
-        <v>200.84498773770841</v>
-      </c>
-      <c r="K2">
-        <v>33960.493895768253</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>195</v>
       </c>
@@ -506,14 +497,8 @@
       <c r="I3">
         <v>463.55396116418473</v>
       </c>
-      <c r="J3">
-        <v>199.46881889122929</v>
-      </c>
-      <c r="K3">
-        <v>30980.533590453218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>196</v>
       </c>
@@ -541,14 +526,8 @@
       <c r="I4">
         <v>462.82953379481302</v>
       </c>
-      <c r="J4">
-        <v>199.31325345168659</v>
-      </c>
-      <c r="K4">
-        <v>30667.008330665041</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>197</v>
       </c>
@@ -576,14 +555,8 @@
       <c r="I5">
         <v>462.82953379481262</v>
       </c>
-      <c r="J5">
-        <v>199.31325345168659</v>
-      </c>
-      <c r="K5">
-        <v>30667.008330665041</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>198</v>
       </c>
@@ -611,14 +584,8 @@
       <c r="I6">
         <v>463.55396116418473</v>
       </c>
-      <c r="J6">
-        <v>199.46881889122929</v>
-      </c>
-      <c r="K6">
-        <v>30980.533590453218</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>199</v>
       </c>
@@ -646,14 +613,8 @@
       <c r="I7">
         <v>469.9838417964778</v>
       </c>
-      <c r="J7">
-        <v>200.84498773770841</v>
-      </c>
-      <c r="K7">
-        <v>33960.493895768253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>200</v>
       </c>
@@ -681,14 +642,8 @@
       <c r="I8">
         <v>465.23856947607851</v>
       </c>
-      <c r="J8">
-        <v>199.82246397050221</v>
-      </c>
-      <c r="K8">
-        <v>31409.02601090946</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>201</v>
       </c>
@@ -716,14 +671,8 @@
       <c r="I9">
         <v>464.51435847664362</v>
       </c>
-      <c r="J9">
-        <v>199.66601886214281</v>
-      </c>
-      <c r="K9">
-        <v>31058.831847856771</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>202</v>
       </c>
@@ -751,14 +700,8 @@
       <c r="I10">
         <v>464.51435847664362</v>
       </c>
-      <c r="J10">
-        <v>199.66601886214281</v>
-      </c>
-      <c r="K10">
-        <v>31058.831847856771</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>203</v>
       </c>
@@ -786,14 +729,8 @@
       <c r="I11">
         <v>465.23856947607851</v>
       </c>
-      <c r="J11">
-        <v>199.82246397050221</v>
-      </c>
-      <c r="K11">
-        <v>31409.02601090946</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>204</v>
       </c>
@@ -821,14 +758,8 @@
       <c r="I12">
         <v>469.9838417964778</v>
       </c>
-      <c r="J12">
-        <v>200.84498773770841</v>
-      </c>
-      <c r="K12">
-        <v>33960.493895768253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>205</v>
       </c>
@@ -856,14 +787,8 @@
       <c r="I13">
         <v>456.8417861795532</v>
       </c>
-      <c r="J13">
-        <v>198.01543726002811</v>
-      </c>
-      <c r="K13">
-        <v>28041.800509521239</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>206</v>
       </c>
@@ -891,14 +816,8 @@
       <c r="I14">
         <v>456.37514661149743</v>
       </c>
-      <c r="J14">
-        <v>197.91352467021781</v>
-      </c>
-      <c r="K14">
-        <v>27854.807308503041</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>207</v>
       </c>
@@ -926,14 +845,8 @@
       <c r="I15">
         <v>456.37514661149743</v>
       </c>
-      <c r="J15">
-        <v>197.91352467021781</v>
-      </c>
-      <c r="K15">
-        <v>27854.807308503041</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>208</v>
       </c>
@@ -961,14 +874,8 @@
       <c r="I16">
         <v>456.8417861795532</v>
       </c>
-      <c r="J16">
-        <v>198.01543726002811</v>
-      </c>
-      <c r="K16">
-        <v>28041.800509521239</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>209</v>
       </c>
@@ -996,14 +903,8 @@
       <c r="I17">
         <v>463.55396116418473</v>
       </c>
-      <c r="J17">
-        <v>199.46881889122929</v>
-      </c>
-      <c r="K17">
-        <v>30980.533590453218</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>210</v>
       </c>
@@ -1031,14 +932,8 @@
       <c r="I18">
         <v>456.39229924373012</v>
       </c>
-      <c r="J18">
-        <v>197.91842125724091</v>
-      </c>
-      <c r="K18">
-        <v>27878.33153710837</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>211</v>
       </c>
@@ -1066,14 +961,8 @@
       <c r="I19">
         <v>455.93601673415031</v>
       </c>
-      <c r="J19">
-        <v>197.8188598133182</v>
-      </c>
-      <c r="K19">
-        <v>27697.555721244818</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>212</v>
       </c>
@@ -1101,14 +990,8 @@
       <c r="I20">
         <v>455.93601673415031</v>
       </c>
-      <c r="J20">
-        <v>197.8188598133182</v>
-      </c>
-      <c r="K20">
-        <v>27697.555721244818</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>213</v>
       </c>
@@ -1136,14 +1019,8 @@
       <c r="I21">
         <v>456.39229924373012</v>
       </c>
-      <c r="J21">
-        <v>197.91842125724091</v>
-      </c>
-      <c r="K21">
-        <v>27878.33153710837</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>214</v>
       </c>
@@ -1171,14 +1048,8 @@
       <c r="I22">
         <v>462.82953379481262</v>
       </c>
-      <c r="J22">
-        <v>199.31325345168659</v>
-      </c>
-      <c r="K22">
-        <v>30667.008330665041</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>215</v>
       </c>
@@ -1206,14 +1077,8 @@
       <c r="I23">
         <v>456.39229924373012</v>
       </c>
-      <c r="J23">
-        <v>197.91842125724091</v>
-      </c>
-      <c r="K23">
-        <v>27878.331537108381</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>216</v>
       </c>
@@ -1241,14 +1106,8 @@
       <c r="I24">
         <v>455.93601673415031</v>
       </c>
-      <c r="J24">
-        <v>197.8188598133182</v>
-      </c>
-      <c r="K24">
-        <v>27697.555721244818</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>217</v>
       </c>
@@ -1276,14 +1135,8 @@
       <c r="I25">
         <v>455.93601673415031</v>
       </c>
-      <c r="J25">
-        <v>197.8188598133182</v>
-      </c>
-      <c r="K25">
-        <v>27697.555721244818</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>218</v>
       </c>
@@ -1311,14 +1164,8 @@
       <c r="I26">
         <v>456.39229924373012</v>
       </c>
-      <c r="J26">
-        <v>197.91842125724091</v>
-      </c>
-      <c r="K26">
-        <v>27878.331537108381</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>219</v>
       </c>
@@ -1346,14 +1193,8 @@
       <c r="I27">
         <v>462.82953379481262</v>
       </c>
-      <c r="J27">
-        <v>199.31325345168659</v>
-      </c>
-      <c r="K27">
-        <v>30667.008330665041</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>220</v>
       </c>
@@ -1381,14 +1222,8 @@
       <c r="I28">
         <v>456.8417861795532</v>
       </c>
-      <c r="J28">
-        <v>198.01543726002811</v>
-      </c>
-      <c r="K28">
-        <v>28041.800509521239</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>221</v>
       </c>
@@ -1416,14 +1251,8 @@
       <c r="I29">
         <v>456.37514661149743</v>
       </c>
-      <c r="J29">
-        <v>197.91352467021781</v>
-      </c>
-      <c r="K29">
-        <v>27854.807308503048</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>222</v>
       </c>
@@ -1451,14 +1280,8 @@
       <c r="I30">
         <v>456.37514661149743</v>
       </c>
-      <c r="J30">
-        <v>197.91352467021781</v>
-      </c>
-      <c r="K30">
-        <v>27854.807308503048</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>223</v>
       </c>
@@ -1486,14 +1309,8 @@
       <c r="I31">
         <v>456.8417861795532</v>
       </c>
-      <c r="J31">
-        <v>198.01543726002811</v>
-      </c>
-      <c r="K31">
-        <v>28041.800509521228</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>224</v>
       </c>
@@ -1521,14 +1338,8 @@
       <c r="I32">
         <v>463.55396116418473</v>
       </c>
-      <c r="J32">
-        <v>199.46881889122929</v>
-      </c>
-      <c r="K32">
-        <v>30980.533590453218</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>225</v>
       </c>
@@ -1556,14 +1367,8 @@
       <c r="I33">
         <v>465.23856947607851</v>
       </c>
-      <c r="J33">
-        <v>199.82246397050221</v>
-      </c>
-      <c r="K33">
-        <v>31409.02601090946</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>226</v>
       </c>
@@ -1591,14 +1396,8 @@
       <c r="I34">
         <v>464.51435847664362</v>
       </c>
-      <c r="J34">
-        <v>199.66601886214281</v>
-      </c>
-      <c r="K34">
-        <v>31058.831847856771</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>227</v>
       </c>
@@ -1626,14 +1425,8 @@
       <c r="I35">
         <v>464.51435847664362</v>
       </c>
-      <c r="J35">
-        <v>199.66601886214281</v>
-      </c>
-      <c r="K35">
-        <v>31058.831847856771</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>228</v>
       </c>
@@ -1661,14 +1454,8 @@
       <c r="I36">
         <v>465.23856947607851</v>
       </c>
-      <c r="J36">
-        <v>199.82246397050221</v>
-      </c>
-      <c r="K36">
-        <v>31409.02601090946</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>229</v>
       </c>
@@ -1696,14 +1483,8 @@
       <c r="I37">
         <v>469.9838417964778</v>
       </c>
-      <c r="J37">
-        <v>200.84498773770841</v>
-      </c>
-      <c r="K37">
-        <v>33960.493895768253</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>230</v>
       </c>
@@ -1731,14 +1512,8 @@
       <c r="I38">
         <v>456.07333522115891</v>
       </c>
-      <c r="J38">
-        <v>197.93696375138259</v>
-      </c>
-      <c r="K38">
-        <v>28130.09608170739</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>231</v>
       </c>
@@ -1766,14 +1541,8 @@
       <c r="I39">
         <v>452.09237503140969</v>
       </c>
-      <c r="J39">
-        <v>197.0343850998176</v>
-      </c>
-      <c r="K39">
-        <v>26461.76679642528</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>232</v>
       </c>
@@ -1801,14 +1570,8 @@
       <c r="I40">
         <v>451.883401528344</v>
       </c>
-      <c r="J40">
-        <v>196.9875580887439</v>
-      </c>
-      <c r="K40">
-        <v>26374.613747868691</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>233</v>
       </c>
@@ -1836,14 +1599,8 @@
       <c r="I41">
         <v>451.883401528344</v>
       </c>
-      <c r="J41">
-        <v>196.9875580887439</v>
-      </c>
-      <c r="K41">
-        <v>26374.613747868691</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>234</v>
       </c>
@@ -1871,14 +1628,8 @@
       <c r="I42">
         <v>452.09237503140969</v>
       </c>
-      <c r="J42">
-        <v>197.0343850998176</v>
-      </c>
-      <c r="K42">
-        <v>26461.76679642528</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>235</v>
       </c>
@@ -1906,14 +1657,8 @@
       <c r="I43">
         <v>456.07333522115891</v>
       </c>
-      <c r="J43">
-        <v>197.93696375138259</v>
-      </c>
-      <c r="K43">
-        <v>28130.09608170739</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>236</v>
       </c>
@@ -1941,14 +1686,8 @@
       <c r="I44">
         <v>456.72379629761082</v>
       </c>
-      <c r="J44">
-        <v>198.07850313540601</v>
-      </c>
-      <c r="K44">
-        <v>28372.818176122899</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>237</v>
       </c>
@@ -1976,14 +1715,8 @@
       <c r="I45">
         <v>452.75016600971122</v>
       </c>
-      <c r="J45">
-        <v>197.17527280879131</v>
-      </c>
-      <c r="K45">
-        <v>26670.044997975969</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>238</v>
       </c>
@@ -2011,14 +1744,8 @@
       <c r="I46">
         <v>452.51643978994099</v>
       </c>
-      <c r="J46">
-        <v>197.12325433059851</v>
-      </c>
-      <c r="K46">
-        <v>26576.469655484121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>239</v>
       </c>
@@ -2046,14 +1773,8 @@
       <c r="I47">
         <v>452.51643978994099</v>
       </c>
-      <c r="J47">
-        <v>197.12325433059851</v>
-      </c>
-      <c r="K47">
-        <v>26576.469655484121</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>240</v>
       </c>
@@ -2081,14 +1802,8 @@
       <c r="I48">
         <v>452.75016600971122</v>
       </c>
-      <c r="J48">
-        <v>197.17527280879131</v>
-      </c>
-      <c r="K48">
-        <v>26670.044997975969</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>241</v>
       </c>
@@ -2116,14 +1831,8 @@
       <c r="I49">
         <v>456.72379629761082</v>
       </c>
-      <c r="J49">
-        <v>198.07850313540601</v>
-      </c>
-      <c r="K49">
-        <v>28372.818176122899</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>242</v>
       </c>
@@ -2151,14 +1860,8 @@
       <c r="I50">
         <v>456.3980775730613</v>
       </c>
-      <c r="J50">
-        <v>198.00819111490929</v>
-      </c>
-      <c r="K50">
-        <v>28251.214148122599</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>243</v>
       </c>
@@ -2186,14 +1889,8 @@
       <c r="I51">
         <v>452.57887767421511</v>
       </c>
-      <c r="J51">
-        <v>197.13772272073169</v>
-      </c>
-      <c r="K51">
-        <v>26613.58306691538</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>244</v>
       </c>
@@ -2221,14 +1918,8 @@
       <c r="I52">
         <v>452.34480687323492</v>
       </c>
-      <c r="J52">
-        <v>197.08562218657221</v>
-      </c>
-      <c r="K52">
-        <v>26520.096040720589</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>245</v>
       </c>
@@ -2256,14 +1947,8 @@
       <c r="I53">
         <v>452.34480687323492</v>
       </c>
-      <c r="J53">
-        <v>197.08562218657221</v>
-      </c>
-      <c r="K53">
-        <v>26520.096040720589</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>246</v>
       </c>
@@ -2291,14 +1976,8 @@
       <c r="I54">
         <v>452.57887767421511</v>
       </c>
-      <c r="J54">
-        <v>197.13772272073169</v>
-      </c>
-      <c r="K54">
-        <v>26613.58306691538</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>247</v>
       </c>
@@ -2326,14 +2005,8 @@
       <c r="I55">
         <v>456.3980775730613</v>
       </c>
-      <c r="J55">
-        <v>198.00819111490929</v>
-      </c>
-      <c r="K55">
-        <v>28251.214148122599</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>248</v>
       </c>
@@ -2361,14 +2034,8 @@
       <c r="I56">
         <v>456.72379629761082</v>
       </c>
-      <c r="J56">
-        <v>198.07850313540601</v>
-      </c>
-      <c r="K56">
-        <v>28372.818176122899</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>249</v>
       </c>
@@ -2396,14 +2063,8 @@
       <c r="I57">
         <v>452.75016600971122</v>
       </c>
-      <c r="J57">
-        <v>197.17527280879131</v>
-      </c>
-      <c r="K57">
-        <v>26670.044997975969</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>250</v>
       </c>
@@ -2431,14 +2092,8 @@
       <c r="I58">
         <v>452.51643978994099</v>
       </c>
-      <c r="J58">
-        <v>197.12325433059851</v>
-      </c>
-      <c r="K58">
-        <v>26576.469655484121</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>251</v>
       </c>
@@ -2466,14 +2121,8 @@
       <c r="I59">
         <v>452.51643978994099</v>
       </c>
-      <c r="J59">
-        <v>197.12325433059851</v>
-      </c>
-      <c r="K59">
-        <v>26576.469655484121</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>252</v>
       </c>
@@ -2501,14 +2150,8 @@
       <c r="I60">
         <v>452.75016600971122</v>
       </c>
-      <c r="J60">
-        <v>197.17527280879131</v>
-      </c>
-      <c r="K60">
-        <v>26670.044997975969</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>253</v>
       </c>
@@ -2536,14 +2179,8 @@
       <c r="I61">
         <v>456.72379629761082</v>
       </c>
-      <c r="J61">
-        <v>198.07850313540601</v>
-      </c>
-      <c r="K61">
-        <v>28372.818176122899</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>254</v>
       </c>
@@ -2571,14 +2208,8 @@
       <c r="I62">
         <v>456.07333522115891</v>
       </c>
-      <c r="J62">
-        <v>197.93696375138259</v>
-      </c>
-      <c r="K62">
-        <v>28130.09608170739</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>255</v>
       </c>
@@ -2606,14 +2237,8 @@
       <c r="I63">
         <v>452.09237503140969</v>
       </c>
-      <c r="J63">
-        <v>197.0343850998176</v>
-      </c>
-      <c r="K63">
-        <v>26461.76679642528</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>256</v>
       </c>
@@ -2641,14 +2266,8 @@
       <c r="I64">
         <v>451.883401528344</v>
       </c>
-      <c r="J64">
-        <v>196.9875580887439</v>
-      </c>
-      <c r="K64">
-        <v>26374.613747868691</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>257</v>
       </c>
@@ -2676,14 +2295,8 @@
       <c r="I65">
         <v>451.883401528344</v>
       </c>
-      <c r="J65">
-        <v>196.9875580887439</v>
-      </c>
-      <c r="K65">
-        <v>26374.613747868691</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>258</v>
       </c>
@@ -2711,14 +2324,8 @@
       <c r="I66">
         <v>452.09237503140969</v>
       </c>
-      <c r="J66">
-        <v>197.0343850998176</v>
-      </c>
-      <c r="K66">
-        <v>26461.76679642528</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>259</v>
       </c>
@@ -2746,14 +2353,8 @@
       <c r="I67">
         <v>456.07333522115891</v>
       </c>
-      <c r="J67">
-        <v>197.93696375138259</v>
-      </c>
-      <c r="K67">
-        <v>28130.09608170739</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>260</v>
       </c>
@@ -2781,14 +2382,8 @@
       <c r="I68">
         <v>458.0718048673159</v>
       </c>
-      <c r="J68">
-        <v>198.3442589447792</v>
-      </c>
-      <c r="K68">
-        <v>28374.886128217451</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>261</v>
       </c>
@@ -2816,14 +2411,8 @@
       <c r="I69">
         <v>452.20361992269358</v>
       </c>
-      <c r="J69">
-        <v>197.05070480222341</v>
-      </c>
-      <c r="K69">
-        <v>26380.24147441069</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>262</v>
       </c>
@@ -2851,14 +2440,8 @@
       <c r="I70">
         <v>452.03861806345952</v>
       </c>
-      <c r="J70">
-        <v>197.01427374329279</v>
-      </c>
-      <c r="K70">
-        <v>26334.112445590741</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>263</v>
       </c>
@@ -2886,14 +2469,8 @@
       <c r="I71">
         <v>452.03861806345952</v>
       </c>
-      <c r="J71">
-        <v>197.01427374329279</v>
-      </c>
-      <c r="K71">
-        <v>26334.112445590741</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>264</v>
       </c>
@@ -2921,14 +2498,8 @@
       <c r="I72">
         <v>452.20361992269358</v>
       </c>
-      <c r="J72">
-        <v>197.05070480222341</v>
-      </c>
-      <c r="K72">
-        <v>26380.24147441069</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>265</v>
       </c>
@@ -2956,14 +2527,8 @@
       <c r="I73">
         <v>458.0718048673159</v>
       </c>
-      <c r="J73">
-        <v>198.3442589447792</v>
-      </c>
-      <c r="K73">
-        <v>28374.886128217451</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>266</v>
       </c>
@@ -2991,14 +2556,8 @@
       <c r="I74">
         <v>453.55361915930598</v>
       </c>
-      <c r="J74">
-        <v>197.30705327303241</v>
-      </c>
-      <c r="K74">
-        <v>26836.69042835899</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>267</v>
       </c>
@@ -3026,14 +2585,8 @@
       <c r="I75">
         <v>453.49431838775411</v>
       </c>
-      <c r="J75">
-        <v>197.3039844661179</v>
-      </c>
-      <c r="K75">
-        <v>26831.133002567691</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>268</v>
       </c>
@@ -3061,14 +2614,8 @@
       <c r="I76">
         <v>453.29805471482899</v>
       </c>
-      <c r="J76">
-        <v>197.2609741735765</v>
-      </c>
-      <c r="K76">
-        <v>26767.480855371388</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>269</v>
       </c>
@@ -3096,14 +2643,8 @@
       <c r="I77">
         <v>453.49431838775411</v>
       </c>
-      <c r="J77">
-        <v>197.3039844661179</v>
-      </c>
-      <c r="K77">
-        <v>26831.133002567691</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>270</v>
       </c>
@@ -3131,14 +2672,8 @@
       <c r="I78">
         <v>453.55361915930598</v>
       </c>
-      <c r="J78">
-        <v>197.30705327303241</v>
-      </c>
-      <c r="K78">
-        <v>26836.69042835899</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>271</v>
       </c>
@@ -3166,14 +2701,8 @@
       <c r="I79">
         <v>458.67350624526921</v>
       </c>
-      <c r="J79">
-        <v>198.47440803484659</v>
-      </c>
-      <c r="K79">
-        <v>28620.06412916963</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>272</v>
       </c>
@@ -3201,14 +2730,8 @@
       <c r="I80">
         <v>452.75694121064453</v>
       </c>
-      <c r="J80">
-        <v>197.16961557925509</v>
-      </c>
-      <c r="K80">
-        <v>26583.641753786262</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>273</v>
       </c>
@@ -3236,14 +2759,8 @@
       <c r="I81">
         <v>452.57189124836151</v>
       </c>
-      <c r="J81">
-        <v>197.12881015063601</v>
-      </c>
-      <c r="K81">
-        <v>26526.915005321491</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>274</v>
       </c>
@@ -3271,14 +2788,8 @@
       <c r="I82">
         <v>452.57189124836151</v>
       </c>
-      <c r="J82">
-        <v>197.12881015063601</v>
-      </c>
-      <c r="K82">
-        <v>26526.915005321502</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>275</v>
       </c>
@@ -3306,14 +2817,8 @@
       <c r="I83">
         <v>452.75694121064453</v>
       </c>
-      <c r="J83">
-        <v>197.16961557925509</v>
-      </c>
-      <c r="K83">
-        <v>26583.641753786262</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>276</v>
       </c>
@@ -3341,14 +2846,8 @@
       <c r="I84">
         <v>458.67350624526921</v>
       </c>
-      <c r="J84">
-        <v>198.47440803484659</v>
-      </c>
-      <c r="K84">
-        <v>28620.06412916963</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>277</v>
       </c>
@@ -3376,14 +2875,8 @@
       <c r="I85">
         <v>453.54044001302009</v>
       </c>
-      <c r="J85">
-        <v>197.31152885534689</v>
-      </c>
-      <c r="K85">
-        <v>26846.51919689697</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>278</v>
       </c>
@@ -3411,14 +2904,8 @@
       <c r="I86">
         <v>453.50667143590942</v>
       </c>
-      <c r="J86">
-        <v>197.3139349125849</v>
-      </c>
-      <c r="K86">
-        <v>26849.7648087458</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>279</v>
       </c>
@@ -3446,14 +2933,8 @@
       <c r="I87">
         <v>453.31429800726841</v>
       </c>
-      <c r="J87">
-        <v>197.27185337060831</v>
-      </c>
-      <c r="K87">
-        <v>26786.14843857204</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>280</v>
       </c>
@@ -3481,14 +2962,8 @@
       <c r="I88">
         <v>453.50667143590942</v>
       </c>
-      <c r="J88">
-        <v>197.3139349125849</v>
-      </c>
-      <c r="K88">
-        <v>26849.7648087458</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>281</v>
       </c>
@@ -3516,14 +2991,8 @@
       <c r="I89">
         <v>453.54044001302009</v>
       </c>
-      <c r="J89">
-        <v>197.31152885534689</v>
-      </c>
-      <c r="K89">
-        <v>26846.519196896959</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>282</v>
       </c>
@@ -3551,14 +3020,8 @@
       <c r="I90">
         <v>458.30765273612388</v>
       </c>
-      <c r="J90">
-        <v>198.39520014296801</v>
-      </c>
-      <c r="K90">
-        <v>28470.278370576951</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>283</v>
       </c>
@@ -3586,14 +3049,8 @@
       <c r="I91">
         <v>452.56500563337971</v>
       </c>
-      <c r="J91">
-        <v>197.12707776279271</v>
-      </c>
-      <c r="K91">
-        <v>26510.746174940032</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>284</v>
       </c>
@@ -3621,14 +3078,8 @@
       <c r="I92">
         <v>452.3779427135255</v>
       </c>
-      <c r="J92">
-        <v>197.08586043473781</v>
-      </c>
-      <c r="K92">
-        <v>26453.975553535449</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>285</v>
       </c>
@@ -3656,14 +3107,8 @@
       <c r="I93">
         <v>452.3779427135255</v>
       </c>
-      <c r="J93">
-        <v>197.08586043473781</v>
-      </c>
-      <c r="K93">
-        <v>26453.97555353546</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>286</v>
       </c>
@@ -3691,14 +3136,8 @@
       <c r="I94">
         <v>452.56500563337971</v>
       </c>
-      <c r="J94">
-        <v>197.12707776279271</v>
-      </c>
-      <c r="K94">
-        <v>26510.746174940032</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>287</v>
       </c>
@@ -3726,14 +3165,8 @@
       <c r="I95">
         <v>458.30765273612388</v>
       </c>
-      <c r="J95">
-        <v>198.39520014296801</v>
-      </c>
-      <c r="K95">
-        <v>28470.278370576951</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>288</v>
       </c>
@@ -3761,14 +3194,8 @@
       <c r="I96">
         <v>453.33473109592728</v>
       </c>
-      <c r="J96">
-        <v>197.26553503682001</v>
-      </c>
-      <c r="K96">
-        <v>26765.077612389621</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>289</v>
       </c>
@@ -3796,14 +3223,8 @@
       <c r="I97">
         <v>453.30029224958542</v>
       </c>
-      <c r="J97">
-        <v>197.2680277678005</v>
-      </c>
-      <c r="K97">
-        <v>26769.772571332051</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>290</v>
       </c>
@@ -3831,14 +3252,8 @@
       <c r="I98">
         <v>453.10568130679212</v>
       </c>
-      <c r="J98">
-        <v>197.22544922585769</v>
-      </c>
-      <c r="K98">
-        <v>26705.745756487671</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>291</v>
       </c>
@@ -3866,14 +3281,8 @@
       <c r="I99">
         <v>453.30029224958542</v>
       </c>
-      <c r="J99">
-        <v>197.2680277678005</v>
-      </c>
-      <c r="K99">
-        <v>26769.772571332051</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>292</v>
       </c>
@@ -3901,14 +3310,8 @@
       <c r="I100">
         <v>453.33473109592728</v>
       </c>
-      <c r="J100">
-        <v>197.26553503682001</v>
-      </c>
-      <c r="K100">
-        <v>26765.077612389621</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>293</v>
       </c>
@@ -3936,14 +3339,8 @@
       <c r="I101">
         <v>458.67350624526921</v>
       </c>
-      <c r="J101">
-        <v>198.47440803484659</v>
-      </c>
-      <c r="K101">
-        <v>28620.06412916963</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>294</v>
       </c>
@@ -3971,14 +3368,8 @@
       <c r="I102">
         <v>452.75694121064453</v>
       </c>
-      <c r="J102">
-        <v>197.16961557925509</v>
-      </c>
-      <c r="K102">
-        <v>26583.641753786262</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>295</v>
       </c>
@@ -4006,14 +3397,8 @@
       <c r="I103">
         <v>452.57189124836151</v>
       </c>
-      <c r="J103">
-        <v>197.12881015063601</v>
-      </c>
-      <c r="K103">
-        <v>26526.915005321491</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>296</v>
       </c>
@@ -4041,14 +3426,8 @@
       <c r="I104">
         <v>452.57189124836151</v>
       </c>
-      <c r="J104">
-        <v>197.12881015063601</v>
-      </c>
-      <c r="K104">
-        <v>26526.915005321502</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>297</v>
       </c>
@@ -4076,14 +3455,8 @@
       <c r="I105">
         <v>452.75694121064453</v>
       </c>
-      <c r="J105">
-        <v>197.16961557925509</v>
-      </c>
-      <c r="K105">
-        <v>26583.641753786262</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>298</v>
       </c>
@@ -4111,14 +3484,8 @@
       <c r="I106">
         <v>458.67350624526921</v>
       </c>
-      <c r="J106">
-        <v>198.47440803484659</v>
-      </c>
-      <c r="K106">
-        <v>28620.06412916963</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>299</v>
       </c>
@@ -4146,14 +3513,8 @@
       <c r="I107">
         <v>453.54044001302009</v>
       </c>
-      <c r="J107">
-        <v>197.31152885534689</v>
-      </c>
-      <c r="K107">
-        <v>26846.519196896959</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>300</v>
       </c>
@@ -4181,14 +3542,8 @@
       <c r="I108">
         <v>453.50667143590942</v>
       </c>
-      <c r="J108">
-        <v>197.3139349125849</v>
-      </c>
-      <c r="K108">
-        <v>26849.7648087458</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>301</v>
       </c>
@@ -4216,14 +3571,8 @@
       <c r="I109">
         <v>453.31429800726841</v>
       </c>
-      <c r="J109">
-        <v>197.27185337060831</v>
-      </c>
-      <c r="K109">
-        <v>26786.14843857204</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>302</v>
       </c>
@@ -4251,14 +3600,8 @@
       <c r="I110">
         <v>453.50667143590942</v>
       </c>
-      <c r="J110">
-        <v>197.3139349125849</v>
-      </c>
-      <c r="K110">
-        <v>26849.7648087458</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>303</v>
       </c>
@@ -4286,14 +3629,8 @@
       <c r="I111">
         <v>453.54044001302009</v>
       </c>
-      <c r="J111">
-        <v>197.31152885534689</v>
-      </c>
-      <c r="K111">
-        <v>26846.519196896959</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>304</v>
       </c>
@@ -4321,14 +3658,8 @@
       <c r="I112">
         <v>458.0718048673159</v>
       </c>
-      <c r="J112">
-        <v>198.3442589447792</v>
-      </c>
-      <c r="K112">
-        <v>28374.886128217451</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>305</v>
       </c>
@@ -4356,14 +3687,8 @@
       <c r="I113">
         <v>452.20361992269358</v>
       </c>
-      <c r="J113">
-        <v>197.05070480222341</v>
-      </c>
-      <c r="K113">
-        <v>26380.24147441069</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>306</v>
       </c>
@@ -4391,14 +3716,8 @@
       <c r="I114">
         <v>452.03861806345952</v>
       </c>
-      <c r="J114">
-        <v>197.01427374329279</v>
-      </c>
-      <c r="K114">
-        <v>26334.112445590741</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>307</v>
       </c>
@@ -4426,14 +3745,8 @@
       <c r="I115">
         <v>452.03861806345952</v>
       </c>
-      <c r="J115">
-        <v>197.01427374329279</v>
-      </c>
-      <c r="K115">
-        <v>26334.112445590741</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>308</v>
       </c>
@@ -4461,14 +3774,8 @@
       <c r="I116">
         <v>452.20361992269358</v>
       </c>
-      <c r="J116">
-        <v>197.05070480222341</v>
-      </c>
-      <c r="K116">
-        <v>26380.24147441069</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>309</v>
       </c>
@@ -4496,14 +3803,8 @@
       <c r="I117">
         <v>458.0718048673159</v>
       </c>
-      <c r="J117">
-        <v>198.3442589447792</v>
-      </c>
-      <c r="K117">
-        <v>28374.886128217451</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>310</v>
       </c>
@@ -4531,14 +3832,8 @@
       <c r="I118">
         <v>453.55361915930598</v>
       </c>
-      <c r="J118">
-        <v>197.30705327303241</v>
-      </c>
-      <c r="K118">
-        <v>26836.69042835899</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>311</v>
       </c>
@@ -4566,14 +3861,8 @@
       <c r="I119">
         <v>453.49431838775411</v>
       </c>
-      <c r="J119">
-        <v>197.3039844661179</v>
-      </c>
-      <c r="K119">
-        <v>26831.133002567691</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>312</v>
       </c>
@@ -4601,14 +3890,8 @@
       <c r="I120">
         <v>453.29805471482899</v>
       </c>
-      <c r="J120">
-        <v>197.2609741735765</v>
-      </c>
-      <c r="K120">
-        <v>26767.480855371388</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>313</v>
       </c>
@@ -4636,14 +3919,8 @@
       <c r="I121">
         <v>453.49431838775411</v>
       </c>
-      <c r="J121">
-        <v>197.3039844661179</v>
-      </c>
-      <c r="K121">
-        <v>26831.133002567691</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>314</v>
       </c>
@@ -4670,12 +3947,6 @@
       </c>
       <c r="I122">
         <v>453.55361915930598</v>
-      </c>
-      <c r="J122">
-        <v>197.30705327303241</v>
-      </c>
-      <c r="K122">
-        <v>26836.69042835899</v>
       </c>
     </row>
   </sheetData>
